--- a/centrostruct/compare.xlsx
+++ b/centrostruct/compare.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="915" windowWidth="25530" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="915" windowWidth="29040" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="tower331" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="476">
   <si>
     <t>LCH-KIN-BKING11</t>
   </si>
@@ -1436,6 +1437,12 @@
   </si>
   <si>
     <t>5779107.1</t>
+  </si>
+  <si>
+    <t>rectangle</t>
+  </si>
+  <si>
+    <t>figure</t>
   </si>
 </sst>
 </file>
@@ -2003,7 +2010,14 @@
     <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2322,10 +2336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:U110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2335,6 +2349,7 @@
     <col min="5" max="5" width="20.42578125" style="1" customWidth="1"/>
     <col min="6" max="8" width="16.28515625" style="4" customWidth="1"/>
     <col min="10" max="14" width="16.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -3681,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
         <v>128</v>
       </c>
@@ -3723,7 +3738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
         <v>132</v>
       </c>
@@ -3748,24 +3763,8 @@
       <c r="H34" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="2"/>
-        <v>1111111111</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
         <v>136</v>
       </c>
@@ -3790,24 +3789,11 @@
       <c r="H35" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J35">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="2"/>
-        <v>1111111111</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="K35" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
         <v>140</v>
       </c>
@@ -3832,24 +3818,11 @@
       <c r="H36" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="J36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="2"/>
-        <v>1111111111</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="R36" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -3891,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:21">
       <c r="A38" s="2" t="s">
         <v>148</v>
       </c>
@@ -3932,8 +3905,27 @@
         <f t="shared" si="5"/>
         <v>3.0000000000029559E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="3">
+        <v>1847071.58</v>
+      </c>
+      <c r="O38" s="3">
+        <v>5765355.4400000004</v>
+      </c>
+      <c r="P38" s="3">
+        <v>403.47</v>
+      </c>
+      <c r="R38" s="6">
+        <f>N38-B38</f>
+        <v>-2.6499999999068677</v>
+      </c>
+      <c r="S38" s="6">
+        <f>O38-C38</f>
+        <v>-0.13999999966472387</v>
+      </c>
+      <c r="T38" s="6"/>
+      <c r="U38" s="3"/>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="2" t="s">
         <v>152</v>
       </c>
@@ -3974,8 +3966,27 @@
         <f t="shared" ref="M39:M44" si="8">H39-D39</f>
         <v>9.9999999999909051E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="3">
+        <v>1847014.28</v>
+      </c>
+      <c r="O39" s="3">
+        <v>5765691.9800000004</v>
+      </c>
+      <c r="P39" s="3">
+        <v>379.57</v>
+      </c>
+      <c r="R39" s="6">
+        <f t="shared" ref="R39:R44" si="9">N39-B39</f>
+        <v>0.15000000013969839</v>
+      </c>
+      <c r="S39" s="6">
+        <f t="shared" ref="S39:S44" si="10">O39-C39</f>
+        <v>2.0000000484287739E-2</v>
+      </c>
+      <c r="T39" s="6"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
         <v>156</v>
       </c>
@@ -4016,8 +4027,27 @@
         <f t="shared" si="8"/>
         <v>1.999999999998181E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="3">
+        <v>1846981.3</v>
+      </c>
+      <c r="O40" s="3">
+        <v>5765876.8799999999</v>
+      </c>
+      <c r="P40" s="3">
+        <v>381.28</v>
+      </c>
+      <c r="R40" s="6">
+        <f t="shared" si="9"/>
+        <v>-4.0000000037252903E-2</v>
+      </c>
+      <c r="S40" s="6">
+        <f t="shared" si="10"/>
+        <v>-2.0000000484287739E-2</v>
+      </c>
+      <c r="T40" s="6"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
         <v>160</v>
       </c>
@@ -4058,8 +4088,27 @@
         <f t="shared" si="8"/>
         <v>-6.0000000000002274E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="3">
+        <v>1846935.4</v>
+      </c>
+      <c r="O41" s="3">
+        <v>5766133.9199999999</v>
+      </c>
+      <c r="P41" s="3">
+        <v>382.41</v>
+      </c>
+      <c r="R41" s="6">
+        <f t="shared" si="9"/>
+        <v>-5.0000000046566129E-2</v>
+      </c>
+      <c r="S41" s="6">
+        <f t="shared" si="10"/>
+        <v>4.0000000037252903E-2</v>
+      </c>
+      <c r="T41" s="6"/>
+      <c r="U41" s="3"/>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="2" t="s">
         <v>164</v>
       </c>
@@ -4100,8 +4149,27 @@
         <f t="shared" si="8"/>
         <v>-0.1099999999999568</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="3">
+        <v>1846906.1</v>
+      </c>
+      <c r="O42" s="3">
+        <v>5766296.3300000001</v>
+      </c>
+      <c r="P42" s="3">
+        <v>368.54</v>
+      </c>
+      <c r="R42" s="6">
+        <f t="shared" si="9"/>
+        <v>-2.0000000018626451E-2</v>
+      </c>
+      <c r="S42" s="6">
+        <f t="shared" si="10"/>
+        <v>9.999999962747097E-2</v>
+      </c>
+      <c r="T42" s="6"/>
+      <c r="U42" s="3"/>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
         <v>168</v>
       </c>
@@ -4142,8 +4210,27 @@
         <f t="shared" si="8"/>
         <v>9.9999999999909051E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="3">
+        <v>1846870.57</v>
+      </c>
+      <c r="O43" s="3">
+        <v>5766497.21</v>
+      </c>
+      <c r="P43" s="3">
+        <v>367.64</v>
+      </c>
+      <c r="R43" s="6">
+        <f t="shared" si="9"/>
+        <v>2.0000000018626451E-2</v>
+      </c>
+      <c r="S43" s="6">
+        <f t="shared" si="10"/>
+        <v>8.0000000074505806E-2</v>
+      </c>
+      <c r="T43" s="6"/>
+      <c r="U43" s="3"/>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" s="2" t="s">
         <v>172</v>
       </c>
@@ -4184,8 +4271,27 @@
         <f t="shared" si="8"/>
         <v>-3.999999999996362E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="3">
+        <v>1846855.22</v>
+      </c>
+      <c r="O44" s="3">
+        <v>5766582.8700000001</v>
+      </c>
+      <c r="P44" s="3">
+        <v>366.49</v>
+      </c>
+      <c r="R44" s="6">
+        <f t="shared" si="9"/>
+        <v>0.2099999999627471</v>
+      </c>
+      <c r="S44" s="6">
+        <f t="shared" si="10"/>
+        <v>0.20000000018626451</v>
+      </c>
+      <c r="T44" s="6"/>
+      <c r="U44" s="3"/>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
         <v>176</v>
       </c>
@@ -4227,7 +4333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
         <v>180</v>
       </c>
@@ -4269,7 +4375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:21">
       <c r="A47" t="s">
         <v>184</v>
       </c>
@@ -4311,7 +4417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:21">
       <c r="A48" t="s">
         <v>188</v>
       </c>
@@ -5093,19 +5199,19 @@
         <v>263</v>
       </c>
       <c r="J66">
-        <f t="shared" ref="J66:J110" si="9">IF(A66=E66,1,1111111111)</f>
+        <f t="shared" ref="J66:J110" si="11">IF(A66=E66,1,1111111111)</f>
         <v>1</v>
       </c>
       <c r="K66">
-        <f t="shared" ref="K66:K110" si="10">IF(B66=F66,1,1111111111)</f>
+        <f t="shared" ref="K66:K110" si="12">IF(B66=F66,1,1111111111)</f>
         <v>1111111111</v>
       </c>
       <c r="L66">
-        <f t="shared" ref="L66:L110" si="11">IF(C66=G66,1,1111111111)</f>
+        <f t="shared" ref="L66:L110" si="13">IF(C66=G66,1,1111111111)</f>
         <v>1</v>
       </c>
       <c r="M66">
-        <f t="shared" ref="M66:M110" si="12">IF(D66=H66,1,1111111111)</f>
+        <f t="shared" ref="M66:M110" si="14">IF(D66=H66,1,1111111111)</f>
         <v>1</v>
       </c>
     </row>
@@ -5135,19 +5241,19 @@
         <v>267</v>
       </c>
       <c r="J67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -5177,19 +5283,19 @@
         <v>271</v>
       </c>
       <c r="J68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -5219,19 +5325,19 @@
         <v>275</v>
       </c>
       <c r="J69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -5261,19 +5367,19 @@
         <v>279</v>
       </c>
       <c r="J70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -5303,19 +5409,19 @@
         <v>283</v>
       </c>
       <c r="J71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -5345,19 +5451,19 @@
         <v>287</v>
       </c>
       <c r="J72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -5387,19 +5493,19 @@
         <v>291</v>
       </c>
       <c r="J73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -5429,19 +5535,19 @@
         <v>295</v>
       </c>
       <c r="J74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -5471,19 +5577,19 @@
         <v>299</v>
       </c>
       <c r="J75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -5513,19 +5619,19 @@
         <v>468</v>
       </c>
       <c r="J76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1111111111</v>
       </c>
     </row>
@@ -5555,19 +5661,19 @@
         <v>307</v>
       </c>
       <c r="J77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -5597,19 +5703,19 @@
         <v>469</v>
       </c>
       <c r="J78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1111111111</v>
       </c>
     </row>
@@ -5639,19 +5745,19 @@
         <v>315</v>
       </c>
       <c r="J79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -5681,19 +5787,19 @@
         <v>319</v>
       </c>
       <c r="J80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -5723,19 +5829,19 @@
         <v>323</v>
       </c>
       <c r="J81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -5765,19 +5871,19 @@
         <v>327</v>
       </c>
       <c r="J82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -5807,19 +5913,19 @@
         <v>331</v>
       </c>
       <c r="J83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -5849,19 +5955,19 @@
         <v>335</v>
       </c>
       <c r="J84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -5891,19 +5997,19 @@
         <v>339</v>
       </c>
       <c r="J85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -5933,19 +6039,19 @@
         <v>343</v>
       </c>
       <c r="J86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -5975,19 +6081,19 @@
         <v>470</v>
       </c>
       <c r="J87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1111111111</v>
       </c>
     </row>
@@ -6017,19 +6123,19 @@
         <v>351</v>
       </c>
       <c r="J88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -6059,19 +6165,19 @@
         <v>355</v>
       </c>
       <c r="J89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -6101,19 +6207,19 @@
         <v>359</v>
       </c>
       <c r="J90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -6143,19 +6249,19 @@
         <v>363</v>
       </c>
       <c r="J91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -6185,19 +6291,19 @@
         <v>367</v>
       </c>
       <c r="J92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -6227,19 +6333,19 @@
         <v>371</v>
       </c>
       <c r="J93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -6269,19 +6375,19 @@
         <v>375</v>
       </c>
       <c r="J94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -6311,19 +6417,19 @@
         <v>379</v>
       </c>
       <c r="J95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L95">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -6353,19 +6459,19 @@
         <v>471</v>
       </c>
       <c r="J96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1111111111</v>
       </c>
     </row>
@@ -6395,19 +6501,19 @@
         <v>387</v>
       </c>
       <c r="J97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -6437,19 +6543,19 @@
         <v>391</v>
       </c>
       <c r="J98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -6479,19 +6585,19 @@
         <v>472</v>
       </c>
       <c r="J99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1111111111</v>
       </c>
     </row>
@@ -6521,19 +6627,19 @@
         <v>399</v>
       </c>
       <c r="J100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -6563,19 +6669,19 @@
         <v>403</v>
       </c>
       <c r="J101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -6605,19 +6711,19 @@
         <v>407</v>
       </c>
       <c r="J102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -6647,19 +6753,19 @@
         <v>411</v>
       </c>
       <c r="J103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -6689,19 +6795,19 @@
         <v>415</v>
       </c>
       <c r="J104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -6731,19 +6837,19 @@
         <v>419</v>
       </c>
       <c r="J105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1111111111</v>
       </c>
       <c r="M105">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -6773,19 +6879,19 @@
         <v>423</v>
       </c>
       <c r="J106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -6815,19 +6921,19 @@
         <v>427</v>
       </c>
       <c r="J107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K107">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M107">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -6857,19 +6963,19 @@
         <v>431</v>
       </c>
       <c r="J108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K108">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M108">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -6899,19 +7005,19 @@
         <v>470</v>
       </c>
       <c r="J109">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K109">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L109">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1111111111</v>
       </c>
     </row>
@@ -6941,25 +7047,31 @@
         <v>435</v>
       </c>
       <c r="J110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K110">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1111111111</v>
       </c>
       <c r="L110">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M110">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K38:M44">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="notBetween">
+      <formula>-0.1</formula>
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R38:T44">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="notBetween">
       <formula>-0.1</formula>
       <formula>0.1</formula>
     </cfRule>
@@ -6967,4 +7079,121 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="4" width="12.85546875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="3">
+        <v>1847071.58</v>
+      </c>
+      <c r="C1" s="3">
+        <v>5765355.4400000004</v>
+      </c>
+      <c r="D1" s="3">
+        <v>403.47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1847014.28</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5765691.9800000004</v>
+      </c>
+      <c r="D2" s="3">
+        <v>379.57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1846981.3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5765876.8799999999</v>
+      </c>
+      <c r="D3" s="3">
+        <v>381.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1846935.4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5766133.9199999999</v>
+      </c>
+      <c r="D4" s="3">
+        <v>382.41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1846906.1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5766296.3300000001</v>
+      </c>
+      <c r="D5" s="3">
+        <v>368.54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1846870.57</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5766497.21</v>
+      </c>
+      <c r="D6" s="3">
+        <v>367.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1846855.22</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5766582.8700000001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>366.49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>